--- a/results/binary/1510/automl.xlsx
+++ b/results/binary/1510/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>00:00:08</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -585,65 +615,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.967</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.972</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.956</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:00:27</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -712,12 +757,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:15</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:15:46</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:00:29</t>
         </is>
       </c>
     </row>
@@ -784,10 +844,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:25:10</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:22:40</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:10:01</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>00:10:02</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>00:10:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1000,10 +1105,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>00:08:59</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,65 +1137,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.912</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.946</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>0.818</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.912</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.939</t>
+          <t>0.913</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.872</t>
+          <t>0.823</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.969</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.920</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:09:59</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>00:00:13</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:10:01</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/binary/1510/automl.xlsx
+++ b/results/binary/1510/automl.xlsx
@@ -919,12 +919,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.991 (0.970 Â± 0.016)</t>
+          <t>0.991 (0.969 Â± 0.017)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:09:40 (00:10:20 Â± 00:00:20)</t>
+          <t>00:00:23 (00:00:24 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/binary/1510/automl.xlsx
+++ b/results/binary/1510/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.983 (0.981 Â± 0.002)</t>
+          <t>0.983 (0.981 ± 0.002)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:01:41 (00:03:51 Â± 00:00:57)</t>
+          <t>00:01:41 (00:03:51 ± 00:00:57)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:13 Â± 00:00:03)</t>
+          <t>00:00:03 (00:00:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.000 (0.966 Â± 0.017)</t>
+          <t>1.000 (0.966 ± 0.017)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:05 (00:00:06 Â± 00:00:02)</t>
+          <t>00:00:05 (00:00:06 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.000 (0.971 Â± 0.013)</t>
+          <t>1.000 (0.971 ± 0.013)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:18 (00:00:28 Â± 00:00:10)</t>
+          <t>00:00:18 (00:00:28 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.991 (0.961 Â± 0.020)</t>
+          <t>0.991 (0.961 ± 0.020)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:12 Â± 00:00:03)</t>
+          <t>00:05:06 (00:05:12 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.000 (0.976 Â± 0.014)</t>
+          <t>1.000 (0.976 ± 0.014)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.000 (0.970 Â± 0.014)</t>
+          <t>1.000 (0.970 ± 0.014)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.000 (0.973 Â± 0.017)</t>
+          <t>1.000 (0.973 ± 0.017)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:01:46 (00:04:27 Â± 00:01:16)</t>
+          <t>00:01:46 (00:04:27 ± 00:01:16)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.991 (0.964 Â± 0.021)</t>
+          <t>0.991 (0.964 ± 0.021)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.991 (0.971 Â± 0.015)</t>
+          <t>0.991 (0.971 ± 0.015)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.966 (0.934 Â± 0.024)</t>
+          <t>0.966 (0.934 ± 0.024)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:01)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.267 (0.192 Â± 0.037)</t>
+          <t>0.267 (0.192 ± 0.037)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:44 (00:03:05 Â± 00:00:07)</t>
+          <t>00:02:44 (00:03:05 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.000 (0.951 Â± 0.022)</t>
+          <t>1.000 (0.951 ± 0.022)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.000 (0.958 Â± 0.022)</t>
+          <t>1.000 (0.958 ± 0.022)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:24 (00:00:26 Â± 00:00:01)</t>
+          <t>00:00:24 (00:00:26 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.956 (0.952 Â± 0.004)</t>
+          <t>0.956 (0.952 ± 0.004)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:03:39 (00:03:58 Â± 00:00:19)</t>
+          <t>00:03:39 (00:03:58 ± 00:00:19)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.991 (0.969 Â± 0.017)</t>
+          <t>0.991 (0.969 ± 0.017)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:24 Â± 00:00:01)</t>
+          <t>00:00:23 (00:00:24 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.991 (0.963 Â± 0.020)</t>
+          <t>0.991 (0.963 ± 0.020)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:07 Â± 00:00:05)</t>
+          <t>00:05:01 (00:05:07 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
